--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1476.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1476.xlsx
@@ -354,7 +354,7 @@
         <v>2.247301304084354</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.825605694466655</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1476.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1476.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.440558836676655</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.247301304084354</v>
+        <v>3.128355503082275</v>
       </c>
       <c r="C1">
+        <v>2.89504337310791</v>
+      </c>
+      <c r="D1">
+        <v>3.233790636062622</v>
+      </c>
+      <c r="E1">
         <v>15</v>
-      </c>
-      <c r="D1">
-        <v>1.825605694466655</v>
-      </c>
-      <c r="E1">
-        <v>0.6281355142304113</v>
       </c>
     </row>
   </sheetData>
